--- a/simulations/raw_inclusion_exclusion/Wassenaar_2017 IEC/output/tables/time_to_discovery/tds_sim.xlsx
+++ b/simulations/raw_inclusion_exclusion/Wassenaar_2017 IEC/output/tables/time_to_discovery/tds_sim.xlsx
@@ -422,10 +422,10 @@
         <v>56</v>
       </c>
       <c r="C3">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="D3">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -444,10 +444,10 @@
         <v>100</v>
       </c>
       <c r="C5">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D5">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -466,10 +466,10 @@
         <v>145</v>
       </c>
       <c r="C7">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="D7">
-        <v>292</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -488,10 +488,10 @@
         <v>234</v>
       </c>
       <c r="C9">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="D9">
-        <v>99</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -510,10 +510,10 @@
         <v>385</v>
       </c>
       <c r="C11">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="D11">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -532,10 +532,10 @@
         <v>422</v>
       </c>
       <c r="C13">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="D13">
-        <v>59</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -554,10 +554,10 @@
         <v>480</v>
       </c>
       <c r="C15">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="D15">
-        <v>117</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -598,10 +598,10 @@
         <v>817</v>
       </c>
       <c r="C19">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D19">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -620,10 +620,10 @@
         <v>860</v>
       </c>
       <c r="C21">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D21">
-        <v>24</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -642,10 +642,10 @@
         <v>900</v>
       </c>
       <c r="C23">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D23">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -664,10 +664,10 @@
         <v>938</v>
       </c>
       <c r="C25">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="D25">
-        <v>32</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -686,10 +686,10 @@
         <v>1017</v>
       </c>
       <c r="C27">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="D27">
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -708,10 +708,10 @@
         <v>1044</v>
       </c>
       <c r="C29">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D29">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -730,10 +730,10 @@
         <v>1147</v>
       </c>
       <c r="C31">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="D31">
-        <v>129</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -752,10 +752,10 @@
         <v>1186</v>
       </c>
       <c r="C33">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D33">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -774,10 +774,10 @@
         <v>1248</v>
       </c>
       <c r="C35">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="D35">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -796,10 +796,10 @@
         <v>1291</v>
       </c>
       <c r="C37">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="D37">
-        <v>144</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -818,10 +818,10 @@
         <v>1407</v>
       </c>
       <c r="C39">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="D39">
-        <v>94</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -840,10 +840,10 @@
         <v>1414</v>
       </c>
       <c r="C41">
-        <v>357</v>
+        <v>414</v>
       </c>
       <c r="D41">
-        <v>357</v>
+        <v>414</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -862,10 +862,10 @@
         <v>1634</v>
       </c>
       <c r="C43">
-        <v>877</v>
+        <v>900</v>
       </c>
       <c r="D43">
-        <v>877</v>
+        <v>900</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -884,10 +884,10 @@
         <v>1652</v>
       </c>
       <c r="C45">
-        <v>537</v>
+        <v>516</v>
       </c>
       <c r="D45">
-        <v>537</v>
+        <v>516</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -906,10 +906,10 @@
         <v>1781</v>
       </c>
       <c r="C47">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="D47">
-        <v>23</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -928,10 +928,10 @@
         <v>1880</v>
       </c>
       <c r="C49">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D49">
-        <v>47</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -950,10 +950,10 @@
         <v>1895</v>
       </c>
       <c r="C51">
-        <v>171</v>
+        <v>1</v>
       </c>
       <c r="D51">
-        <v>171</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -972,10 +972,10 @@
         <v>1905</v>
       </c>
       <c r="C53">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="D53">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -994,10 +994,10 @@
         <v>1929</v>
       </c>
       <c r="C55">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="D55">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1016,10 +1016,10 @@
         <v>1990</v>
       </c>
       <c r="C57">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="D57">
-        <v>22</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1038,10 +1038,10 @@
         <v>2049</v>
       </c>
       <c r="C59">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="D59">
-        <v>103</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1071,10 +1071,10 @@
         <v>2128</v>
       </c>
       <c r="C62">
-        <v>160</v>
+        <v>209</v>
       </c>
       <c r="D62">
-        <v>160</v>
+        <v>209</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1082,10 +1082,10 @@
         <v>2129</v>
       </c>
       <c r="C63">
-        <v>137</v>
+        <v>5</v>
       </c>
       <c r="D63">
-        <v>137</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1104,10 +1104,10 @@
         <v>2228</v>
       </c>
       <c r="C65">
-        <v>1447</v>
+        <v>1502</v>
       </c>
       <c r="D65">
-        <v>1447</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1126,10 +1126,10 @@
         <v>2339</v>
       </c>
       <c r="C67">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="D67">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1148,10 +1148,10 @@
         <v>2406</v>
       </c>
       <c r="C69">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D69">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1170,10 +1170,10 @@
         <v>2411</v>
       </c>
       <c r="C71">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="D71">
-        <v>146</v>
+        <v>124</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1192,10 +1192,10 @@
         <v>2514</v>
       </c>
       <c r="C73">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="D73">
-        <v>61</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1214,10 +1214,10 @@
         <v>2545</v>
       </c>
       <c r="C75">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="D75">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1236,10 +1236,10 @@
         <v>2698</v>
       </c>
       <c r="C77">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="D77">
-        <v>316</v>
+        <v>332</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1258,10 +1258,10 @@
         <v>2722</v>
       </c>
       <c r="C79">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="D79">
-        <v>278</v>
+        <v>318</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1280,10 +1280,10 @@
         <v>2810</v>
       </c>
       <c r="C81">
-        <v>244</v>
+        <v>14</v>
       </c>
       <c r="D81">
-        <v>244</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1302,10 +1302,10 @@
         <v>2851</v>
       </c>
       <c r="C83">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D83">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1324,10 +1324,10 @@
         <v>2946</v>
       </c>
       <c r="C85">
-        <v>256</v>
+        <v>211</v>
       </c>
       <c r="D85">
-        <v>256</v>
+        <v>211</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1346,10 +1346,10 @@
         <v>2963</v>
       </c>
       <c r="C87">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D87">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1368,10 +1368,10 @@
         <v>2980</v>
       </c>
       <c r="C89">
-        <v>1070</v>
+        <v>978</v>
       </c>
       <c r="D89">
-        <v>1070</v>
+        <v>978</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1390,10 +1390,10 @@
         <v>3025</v>
       </c>
       <c r="C91">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D91">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1412,10 +1412,10 @@
         <v>3042</v>
       </c>
       <c r="C93">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D93">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1434,10 +1434,10 @@
         <v>3088</v>
       </c>
       <c r="C95">
-        <v>710</v>
+        <v>644</v>
       </c>
       <c r="D95">
-        <v>710</v>
+        <v>644</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1456,10 +1456,10 @@
         <v>3374</v>
       </c>
       <c r="C97">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="D97">
-        <v>27</v>
+        <v>69</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1478,10 +1478,10 @@
         <v>3384</v>
       </c>
       <c r="C99">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="D99">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1500,10 +1500,10 @@
         <v>3449</v>
       </c>
       <c r="C101">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D101">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1522,10 +1522,10 @@
         <v>3477</v>
       </c>
       <c r="C103">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D103">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1544,10 +1544,10 @@
         <v>3525</v>
       </c>
       <c r="C105">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="D105">
-        <v>133</v>
+        <v>153</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1566,10 +1566,10 @@
         <v>3540</v>
       </c>
       <c r="C107">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D107">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1588,10 +1588,10 @@
         <v>3596</v>
       </c>
       <c r="C109">
-        <v>282</v>
+        <v>350</v>
       </c>
       <c r="D109">
-        <v>282</v>
+        <v>350</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1610,10 +1610,10 @@
         <v>3903</v>
       </c>
       <c r="C111">
-        <v>1761</v>
+        <v>1670</v>
       </c>
       <c r="D111">
-        <v>1761</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1632,10 +1632,10 @@
         <v>3969</v>
       </c>
       <c r="C113">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="D113">
-        <v>186</v>
+        <v>152</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -1654,10 +1654,10 @@
         <v>3999</v>
       </c>
       <c r="C115">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D115">
-        <v>30</v>
+        <v>71</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -1676,10 +1676,10 @@
         <v>4018</v>
       </c>
       <c r="C117">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="D117">
-        <v>119</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -1698,10 +1698,10 @@
         <v>4082</v>
       </c>
       <c r="C119">
-        <v>1815</v>
+        <v>1887</v>
       </c>
       <c r="D119">
-        <v>1815</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -1720,10 +1720,10 @@
         <v>4107</v>
       </c>
       <c r="C121">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D121">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -1742,10 +1742,10 @@
         <v>4126</v>
       </c>
       <c r="C123">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D123">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -1764,10 +1764,10 @@
         <v>4139</v>
       </c>
       <c r="C125">
-        <v>1552</v>
+        <v>1374</v>
       </c>
       <c r="D125">
-        <v>1552</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -1775,10 +1775,10 @@
         <v>4275</v>
       </c>
       <c r="C126">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="D126">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -1797,10 +1797,10 @@
         <v>4325</v>
       </c>
       <c r="C128">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D128">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -1819,10 +1819,10 @@
         <v>4384</v>
       </c>
       <c r="C130">
-        <v>138</v>
+        <v>8</v>
       </c>
       <c r="D130">
-        <v>138</v>
+        <v>8</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -1841,10 +1841,10 @@
         <v>4449</v>
       </c>
       <c r="C132">
-        <v>1241</v>
+        <v>1161</v>
       </c>
       <c r="D132">
-        <v>1241</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -1863,10 +1863,10 @@
         <v>4487</v>
       </c>
       <c r="C134">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D134">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -1885,10 +1885,10 @@
         <v>4563</v>
       </c>
       <c r="C136">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D136">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -1907,10 +1907,10 @@
         <v>4641</v>
       </c>
       <c r="C138">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D138">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -1929,10 +1929,10 @@
         <v>4732</v>
       </c>
       <c r="C140">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c r="D140">
-        <v>140</v>
+        <v>15</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -1951,10 +1951,10 @@
         <v>4771</v>
       </c>
       <c r="C142">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="D142">
-        <v>79</v>
+        <v>98</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -1973,10 +1973,10 @@
         <v>4850</v>
       </c>
       <c r="C144">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="D144">
-        <v>25</v>
+        <v>68</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -1995,10 +1995,10 @@
         <v>4869</v>
       </c>
       <c r="C146">
-        <v>280</v>
+        <v>349</v>
       </c>
       <c r="D146">
-        <v>280</v>
+        <v>349</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2017,10 +2017,10 @@
         <v>5022</v>
       </c>
       <c r="C148">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D148">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2039,10 +2039,10 @@
         <v>5043</v>
       </c>
       <c r="C150">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="D150">
-        <v>95</v>
+        <v>50</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2061,10 +2061,10 @@
         <v>5090</v>
       </c>
       <c r="C152">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="D152">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2083,10 +2083,10 @@
         <v>5136</v>
       </c>
       <c r="C154">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="D154">
-        <v>35</v>
+        <v>79</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2105,10 +2105,10 @@
         <v>5175</v>
       </c>
       <c r="C156">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D156">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2127,10 +2127,10 @@
         <v>5260</v>
       </c>
       <c r="C158">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="D158">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2149,10 +2149,10 @@
         <v>5482</v>
       </c>
       <c r="C160">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="D160">
-        <v>295</v>
+        <v>263</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2171,10 +2171,10 @@
         <v>5490</v>
       </c>
       <c r="C162">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D162">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2193,10 +2193,10 @@
         <v>5511</v>
       </c>
       <c r="C164">
-        <v>1250</v>
+        <v>1168</v>
       </c>
       <c r="D164">
-        <v>1250</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2215,10 +2215,10 @@
         <v>5516</v>
       </c>
       <c r="C166">
-        <v>404</v>
+        <v>424</v>
       </c>
       <c r="D166">
-        <v>404</v>
+        <v>424</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2237,10 +2237,10 @@
         <v>5636</v>
       </c>
       <c r="C168">
-        <v>1233</v>
+        <v>1181</v>
       </c>
       <c r="D168">
-        <v>1233</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2259,10 +2259,10 @@
         <v>5746</v>
       </c>
       <c r="C170">
-        <v>632</v>
+        <v>555</v>
       </c>
       <c r="D170">
-        <v>632</v>
+        <v>555</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -2281,10 +2281,10 @@
         <v>5839</v>
       </c>
       <c r="C172">
-        <v>2165</v>
+        <v>2180</v>
       </c>
       <c r="D172">
-        <v>2165</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -2303,10 +2303,10 @@
         <v>5845</v>
       </c>
       <c r="C174">
-        <v>666</v>
+        <v>738</v>
       </c>
       <c r="D174">
-        <v>666</v>
+        <v>738</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -2325,10 +2325,10 @@
         <v>5899</v>
       </c>
       <c r="C176">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="D176">
-        <v>198</v>
+        <v>185</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -2347,10 +2347,10 @@
         <v>6030</v>
       </c>
       <c r="C178">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D178">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -2372,10 +2372,10 @@
         <v>683</v>
       </c>
       <c r="C180">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="D180">
-        <v>382</v>
+        <v>350.5</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -2383,10 +2383,10 @@
         <v>6112</v>
       </c>
       <c r="C181">
-        <v>654</v>
+        <v>613</v>
       </c>
       <c r="D181">
-        <v>654</v>
+        <v>613</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -2405,10 +2405,10 @@
         <v>6139</v>
       </c>
       <c r="C183">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D183">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -2427,10 +2427,10 @@
         <v>6279</v>
       </c>
       <c r="C185">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="D185">
-        <v>165</v>
+        <v>145</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -2449,10 +2449,10 @@
         <v>6331</v>
       </c>
       <c r="C187">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="D187">
-        <v>351</v>
+        <v>356</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -2471,10 +2471,10 @@
         <v>6366</v>
       </c>
       <c r="C189">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D189">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -2493,10 +2493,10 @@
         <v>6377</v>
       </c>
       <c r="C191">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="D191">
-        <v>84</v>
+        <v>7</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -2515,10 +2515,10 @@
         <v>6548</v>
       </c>
       <c r="C193">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="D193">
-        <v>309</v>
+        <v>293</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -2537,10 +2537,10 @@
         <v>6691</v>
       </c>
       <c r="C195">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="D195">
-        <v>91</v>
+        <v>6</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -2559,10 +2559,10 @@
         <v>6714</v>
       </c>
       <c r="C197">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="D197">
-        <v>369</v>
+        <v>348</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -2581,10 +2581,10 @@
         <v>6756</v>
       </c>
       <c r="C199">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="D199">
-        <v>31</v>
+        <v>65</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -2603,10 +2603,10 @@
         <v>6882</v>
       </c>
       <c r="C201">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="D201">
-        <v>67</v>
+        <v>49</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -2625,10 +2625,10 @@
         <v>7089</v>
       </c>
       <c r="C203">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="D203">
-        <v>134</v>
+        <v>154</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -2647,10 +2647,10 @@
         <v>7131</v>
       </c>
       <c r="C205">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D205">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -2669,10 +2669,10 @@
         <v>7179</v>
       </c>
       <c r="C207">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="D207">
-        <v>28</v>
+        <v>70</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -2691,10 +2691,10 @@
         <v>7230</v>
       </c>
       <c r="C209">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="D209">
-        <v>69</v>
+        <v>33</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -2713,10 +2713,10 @@
         <v>7249</v>
       </c>
       <c r="C211">
-        <v>504</v>
+        <v>483</v>
       </c>
       <c r="D211">
-        <v>504</v>
+        <v>483</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -2735,10 +2735,10 @@
         <v>7253</v>
       </c>
       <c r="C213">
-        <v>687</v>
+        <v>786</v>
       </c>
       <c r="D213">
-        <v>687</v>
+        <v>786</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -2757,10 +2757,10 @@
         <v>7275</v>
       </c>
       <c r="C215">
-        <v>1071</v>
+        <v>979</v>
       </c>
       <c r="D215">
-        <v>1071</v>
+        <v>979</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -2779,10 +2779,10 @@
         <v>7606</v>
       </c>
       <c r="C217">
-        <v>499</v>
+        <v>527</v>
       </c>
       <c r="D217">
-        <v>499</v>
+        <v>527</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -2801,10 +2801,10 @@
         <v>7632</v>
       </c>
       <c r="C219">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D219">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -2823,10 +2823,10 @@
         <v>7635</v>
       </c>
       <c r="C221">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D221">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -2837,7 +2837,7 @@
         <v>294.1727272727273</v>
       </c>
       <c r="C222">
-        <v>287.0900900900901</v>
+        <v>276.0990990990991</v>
       </c>
     </row>
   </sheetData>
